--- a/cdm_consolidated.xlsx
+++ b/cdm_consolidated.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pampatterson/Carbon-Market/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038AC395-F1AD-4F45-9241-284322FCC427}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -424,8 +418,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,14 +482,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -542,7 +528,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -574,27 +560,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -626,24 +594,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -819,46 +769,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -944,7 +862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1033,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1122,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1211,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1300,7 +1218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1389,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1478,7 +1396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1567,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1656,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -1745,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -1834,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -1923,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -2012,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -2101,7 +2019,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -2190,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -2279,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -2368,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -2457,7 +2375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -2546,7 +2464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -2635,7 +2553,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -2724,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -2813,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -2902,7 +2820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -2991,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -3080,7 +2998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -3169,7 +3087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
@@ -3258,7 +3176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -3347,7 +3265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29">
       <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
@@ -3436,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -3525,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -3614,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
@@ -3703,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29">
       <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
@@ -3792,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29">
       <c r="A34" s="1" t="s">
         <v>60</v>
       </c>
@@ -3881,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29">
       <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
@@ -3970,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29">
       <c r="A36" s="1" t="s">
         <v>62</v>
       </c>
@@ -4059,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29">
       <c r="A37" s="1" t="s">
         <v>63</v>
       </c>
@@ -4148,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29">
       <c r="A38" s="1" t="s">
         <v>64</v>
       </c>
@@ -4237,7 +4155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29">
       <c r="A39" s="1" t="s">
         <v>65</v>
       </c>
@@ -4326,7 +4244,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29">
       <c r="A40" s="1" t="s">
         <v>66</v>
       </c>
@@ -4415,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29">
       <c r="A41" s="1" t="s">
         <v>67</v>
       </c>
@@ -4504,7 +4422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29">
       <c r="A42" s="1" t="s">
         <v>68</v>
       </c>
@@ -4593,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29">
       <c r="A43" s="1" t="s">
         <v>69</v>
       </c>
@@ -4682,7 +4600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29">
       <c r="A44" s="1" t="s">
         <v>70</v>
       </c>
@@ -4771,7 +4689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29">
       <c r="A45" s="1" t="s">
         <v>71</v>
       </c>
@@ -4860,7 +4778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29">
       <c r="A46" s="1" t="s">
         <v>72</v>
       </c>
@@ -4949,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29">
       <c r="A47" s="1" t="s">
         <v>73</v>
       </c>
@@ -5038,7 +4956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29">
       <c r="A48" s="1" t="s">
         <v>74</v>
       </c>
@@ -5127,7 +5045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29">
       <c r="A49" s="1" t="s">
         <v>75</v>
       </c>
@@ -5216,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29">
       <c r="A50" s="1" t="s">
         <v>76</v>
       </c>
@@ -5305,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29">
       <c r="A51" s="1" t="s">
         <v>77</v>
       </c>
@@ -5394,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29">
       <c r="A52" s="1" t="s">
         <v>78</v>
       </c>
@@ -5483,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29">
       <c r="A53" s="1" t="s">
         <v>79</v>
       </c>
@@ -5572,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29">
       <c r="A54" s="1" t="s">
         <v>80</v>
       </c>
@@ -5661,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29">
       <c r="A55" s="1" t="s">
         <v>81</v>
       </c>
@@ -5750,7 +5668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29">
       <c r="A56" s="1" t="s">
         <v>82</v>
       </c>
@@ -5839,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29">
       <c r="A57" s="1" t="s">
         <v>83</v>
       </c>
@@ -5928,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29">
       <c r="A58" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29">
       <c r="A59" s="1" t="s">
         <v>85</v>
       </c>
@@ -6106,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29">
       <c r="A60" s="1" t="s">
         <v>86</v>
       </c>
@@ -6195,7 +6113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29">
       <c r="A61" s="1" t="s">
         <v>87</v>
       </c>
@@ -6284,7 +6202,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29">
       <c r="A62" s="1" t="s">
         <v>88</v>
       </c>
@@ -6373,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29">
       <c r="A63" s="1" t="s">
         <v>89</v>
       </c>
@@ -6462,7 +6380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29">
       <c r="A64" s="1" t="s">
         <v>90</v>
       </c>
@@ -6551,7 +6469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29">
       <c r="A65" s="1" t="s">
         <v>91</v>
       </c>
@@ -6640,7 +6558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29">
       <c r="A66" s="1" t="s">
         <v>92</v>
       </c>
@@ -6729,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29">
       <c r="A67" s="1" t="s">
         <v>93</v>
       </c>
@@ -6818,7 +6736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29">
       <c r="A68" s="1" t="s">
         <v>94</v>
       </c>
@@ -6907,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29">
       <c r="A69" s="1" t="s">
         <v>95</v>
       </c>
@@ -6996,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29">
       <c r="A70" s="1" t="s">
         <v>96</v>
       </c>
@@ -7085,7 +7003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29">
       <c r="A71" s="1" t="s">
         <v>97</v>
       </c>
@@ -7174,7 +7092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29">
       <c r="A72" s="1" t="s">
         <v>98</v>
       </c>
@@ -7263,7 +7181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29">
       <c r="A73" s="1" t="s">
         <v>99</v>
       </c>
@@ -7352,7 +7270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29">
       <c r="A74" s="1" t="s">
         <v>100</v>
       </c>
@@ -7441,7 +7359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29">
       <c r="A75" s="1" t="s">
         <v>101</v>
       </c>
@@ -7530,7 +7448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29">
       <c r="A76" s="1" t="s">
         <v>102</v>
       </c>
@@ -7619,7 +7537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29">
       <c r="A77" s="1" t="s">
         <v>103</v>
       </c>
@@ -7708,7 +7626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29">
       <c r="A78" s="1" t="s">
         <v>104</v>
       </c>
@@ -7797,7 +7715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29">
       <c r="A79" s="1" t="s">
         <v>105</v>
       </c>
@@ -7886,7 +7804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29">
       <c r="A80" s="1" t="s">
         <v>106</v>
       </c>
@@ -7975,7 +7893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29">
       <c r="A81" s="1" t="s">
         <v>107</v>
       </c>
@@ -8064,7 +7982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29">
       <c r="A82" s="1" t="s">
         <v>108</v>
       </c>
@@ -8153,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29">
       <c r="A83" s="1" t="s">
         <v>109</v>
       </c>
@@ -8242,7 +8160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29">
       <c r="A84" s="1" t="s">
         <v>110</v>
       </c>
@@ -8331,7 +8249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29">
       <c r="A85" s="1" t="s">
         <v>111</v>
       </c>
@@ -8420,7 +8338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29">
       <c r="A86" s="1" t="s">
         <v>112</v>
       </c>
@@ -8509,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29">
       <c r="A87" s="1" t="s">
         <v>113</v>
       </c>
@@ -8598,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29">
       <c r="A88" s="1" t="s">
         <v>114</v>
       </c>
@@ -8687,7 +8605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29">
       <c r="A89" s="1" t="s">
         <v>115</v>
       </c>
@@ -8776,7 +8694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29">
       <c r="A90" s="1" t="s">
         <v>116</v>
       </c>
@@ -8865,7 +8783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29">
       <c r="A91" s="1" t="s">
         <v>117</v>
       </c>
@@ -8954,7 +8872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29">
       <c r="A92" s="1" t="s">
         <v>118</v>
       </c>
@@ -9043,7 +8961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29">
       <c r="A93" s="1" t="s">
         <v>119</v>
       </c>
@@ -9132,7 +9050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29">
       <c r="A94" s="1" t="s">
         <v>120</v>
       </c>
@@ -9221,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29">
       <c r="A95" s="1" t="s">
         <v>121</v>
       </c>
@@ -9310,7 +9228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29">
       <c r="A96" s="1" t="s">
         <v>122</v>
       </c>
@@ -9399,7 +9317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29">
       <c r="A97" s="1" t="s">
         <v>123</v>
       </c>
@@ -9488,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:29">
       <c r="A98" s="1" t="s">
         <v>124</v>
       </c>
@@ -9577,7 +9495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:29">
       <c r="A99" s="1" t="s">
         <v>125</v>
       </c>
@@ -9666,7 +9584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:29">
       <c r="A100" s="1" t="s">
         <v>126</v>
       </c>
@@ -9755,7 +9673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:29">
       <c r="A101" s="1" t="s">
         <v>127</v>
       </c>
@@ -9844,7 +9762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:29">
       <c r="A102" s="1" t="s">
         <v>128</v>
       </c>
@@ -9933,7 +9851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:29">
       <c r="A103" s="1" t="s">
         <v>129</v>
       </c>
@@ -10022,7 +9940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:29">
       <c r="A104" s="1" t="s">
         <v>130</v>
       </c>
@@ -10111,7 +10029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:29">
       <c r="A105" s="1" t="s">
         <v>131</v>
       </c>
@@ -10200,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:29">
       <c r="A106" s="1" t="s">
         <v>132</v>
       </c>
